--- a/r4-ELGA-IV-Herzinsuffizienz-main/all-profiles.xlsx
+++ b/r4-ELGA-IV-Herzinsuffizienz-main/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-27T08:28:19+00:00</t>
+    <t>2024-05-28T06:35:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -274,7 +274,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>https://hi.iv.elga.gv.at/ValueSet/einrichtungsart</t>
+    <t>https://hi.iv.elga.gv.at/ValueSet/facilitytype</t>
   </si>
   <si>
     <t>Akteur-hi.Fachrichtung</t>
@@ -646,7 +646,7 @@
     <t>example</t>
   </si>
   <si>
-    <t>https://hi.iv.elga.gv.at/ValueSet/komorbiditaeten</t>
+    <t>https://hi.iv.elga.gv.at/ValueSet/comorbidities</t>
   </si>
   <si>
     <t>Erstdokumentation-hi.Erstabklaerung.EKG</t>
@@ -679,7 +679,7 @@
     <t>Symptomatik/klinischer Status (NYHA I | NYHA II | NYHA III | NYHA IV)</t>
   </si>
   <si>
-    <t>https://hi.iv.elga.gv.at/ValueSet/symptomatik</t>
+    <t>https://hi.iv.elga.gv.at/ValueSet/symptoms</t>
   </si>
   <si>
     <t>Erstdokumentation-hi.Erstabklaerung.Kardiologe</t>
@@ -699,7 +699,7 @@
     <t>HFrEF | HFmrEF | HFpEF</t>
   </si>
   <si>
-    <t>https://hi.iv.elga.gv.at/ValueSet/diagnose</t>
+    <t>https://hi.iv.elga.gv.at/ValueSet/diagnosis</t>
   </si>
   <si>
     <t>Erstdokumentation-hi.Erstabklaerung.Behandlungsziel</t>
@@ -762,7 +762,7 @@
     <t>Evidenzbasierte Zieldosis (Erreicht | Nicht erreicht | Titrationsphase | Max. tolerierte Dosis erreicht)</t>
   </si>
   <si>
-    <t>https://hi.iv.elga.gv.at/ValueSet/zieldosis</t>
+    <t>https://hi.iv.elga.gv.at/ValueSet/targetdose</t>
   </si>
   <si>
     <t>Erstdokumentation-hi.Therapie.Komedikation</t>
@@ -1081,7 +1081,7 @@
     <t>ACE-Hemmer (Ja | Nein | Kontraindikation | ARB)</t>
   </si>
   <si>
-    <t>https://hi.iv.elga.gv.at/ValueSet/acetherapie</t>
+    <t>https://hi.iv.elga.gv.at/ValueSet/acetherapy</t>
   </si>
   <si>
     <t>Folgedokumentation-hi.Therapie.ACE.Zieldosis</t>

--- a/r4-ELGA-IV-Herzinsuffizienz-main/all-profiles.xlsx
+++ b/r4-ELGA-IV-Herzinsuffizienz-main/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-28T06:35:41+00:00</t>
+    <t>2024-05-28T08:58:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-ELGA-IV-Herzinsuffizienz-main/all-profiles.xlsx
+++ b/r4-ELGA-IV-Herzinsuffizienz-main/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-28T08:58:35+00:00</t>
+    <t>2024-05-28T14:23:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-ELGA-IV-Herzinsuffizienz-main/all-profiles.xlsx
+++ b/r4-ELGA-IV-Herzinsuffizienz-main/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9109" uniqueCount="591">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9108" uniqueCount="592">
   <si>
     <t>Property</t>
   </si>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-28T14:23:58+00:00</t>
+    <t>2024-05-29T09:10:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1658,6 +1658,9 @@
   </si>
   <si>
     <t>Detail type of activity</t>
+  </si>
+  <si>
+    <t>https://hi.iv.elga.gv.at/ValueSet/education</t>
   </si>
   <si>
     <t>PlanOfCare-ips.activity.status</t>
@@ -3237,7 +3240,7 @@
         <v>2</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="163">
@@ -3245,7 +3248,7 @@
         <v>4</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="164">
@@ -3261,7 +3264,7 @@
         <v>8</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="166">
@@ -3269,7 +3272,7 @@
         <v>10</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="167">
@@ -3315,7 +3318,7 @@
         <v>21</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="173">
@@ -3351,7 +3354,7 @@
         <v>29</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="178">
@@ -3391,7 +3394,7 @@
         <v>2</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="183">
@@ -3399,7 +3402,7 @@
         <v>4</v>
       </c>
       <c r="B183" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="184">
@@ -3415,7 +3418,7 @@
         <v>8</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="186">
@@ -3423,7 +3426,7 @@
         <v>10</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="187">
@@ -3469,7 +3472,7 @@
         <v>21</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="193">
@@ -3505,7 +3508,7 @@
         <v>29</v>
       </c>
       <c r="B197" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="198">
@@ -29119,13 +29122,11 @@
         <v>72</v>
       </c>
       <c r="Y247" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z247" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="Z247" s="2"/>
       <c r="AA247" t="s" s="2">
-        <v>72</v>
+        <v>532</v>
       </c>
       <c r="AB247" t="s" s="2">
         <v>72</v>
@@ -29163,10 +29164,10 @@
         <v>483</v>
       </c>
       <c r="B248" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C248" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="D248" s="2"/>
       <c r="E248" t="s" s="2">
@@ -29192,10 +29193,10 @@
         <v>286</v>
       </c>
       <c r="M248" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="N248" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="O248" s="2"/>
       <c r="P248" s="2"/>
@@ -29226,7 +29227,7 @@
       </c>
       <c r="Z248" s="2"/>
       <c r="AA248" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AB248" t="s" s="2">
         <v>72</v>
@@ -29244,7 +29245,7 @@
         <v>72</v>
       </c>
       <c r="AG248" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AH248" t="s" s="2">
         <v>78</v>
@@ -29264,10 +29265,10 @@
         <v>483</v>
       </c>
       <c r="B249" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C249" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="D249" s="2"/>
       <c r="E249" t="s" s="2">
@@ -29290,13 +29291,13 @@
         <v>72</v>
       </c>
       <c r="L249" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="M249" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="N249" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="O249" s="2"/>
       <c r="P249" s="2"/>
@@ -29347,7 +29348,7 @@
         <v>72</v>
       </c>
       <c r="AG249" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="AH249" t="s" s="2">
         <v>73</v>
@@ -29367,10 +29368,10 @@
         <v>483</v>
       </c>
       <c r="B250" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C250" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="D250" s="2"/>
       <c r="E250" t="s" s="2">
@@ -29396,10 +29397,10 @@
         <v>512</v>
       </c>
       <c r="M250" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="N250" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="O250" s="2"/>
       <c r="P250" s="2"/>
@@ -29450,7 +29451,7 @@
         <v>72</v>
       </c>
       <c r="AG250" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AH250" t="s" s="2">
         <v>73</v>
@@ -29467,13 +29468,13 @@
     </row>
     <row r="251">
       <c r="A251" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B251" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C251" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="D251" s="2"/>
       <c r="E251" t="s" s="2">
@@ -29499,10 +29500,10 @@
         <v>75</v>
       </c>
       <c r="M251" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="N251" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="O251" s="2"/>
       <c r="P251" s="2"/>
@@ -29570,13 +29571,13 @@
     </row>
     <row r="252">
       <c r="A252" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B252" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C252" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="D252" s="2"/>
       <c r="E252" t="s" s="2">
@@ -29602,10 +29603,10 @@
         <v>82</v>
       </c>
       <c r="M252" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="N252" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="O252" s="2"/>
       <c r="P252" s="2"/>
@@ -29632,11 +29633,11 @@
         <v>72</v>
       </c>
       <c r="Y252" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="Z252" s="2"/>
       <c r="AA252" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="AB252" t="s" s="2">
         <v>72</v>
@@ -29654,7 +29655,7 @@
         <v>72</v>
       </c>
       <c r="AG252" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AH252" t="s" s="2">
         <v>78</v>
@@ -29671,13 +29672,13 @@
     </row>
     <row r="253">
       <c r="A253" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B253" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C253" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="D253" s="2"/>
       <c r="E253" t="s" s="2">
@@ -29703,10 +29704,10 @@
         <v>168</v>
       </c>
       <c r="M253" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="N253" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="O253" s="2"/>
       <c r="P253" s="2"/>
@@ -29757,7 +29758,7 @@
         <v>72</v>
       </c>
       <c r="AG253" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="AH253" t="s" s="2">
         <v>78</v>
@@ -29774,13 +29775,13 @@
     </row>
     <row r="254">
       <c r="A254" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B254" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C254" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="D254" s="2"/>
       <c r="E254" t="s" s="2">
@@ -29803,13 +29804,13 @@
         <v>72</v>
       </c>
       <c r="L254" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="M254" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="N254" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="O254" s="2"/>
       <c r="P254" s="2"/>
@@ -29860,7 +29861,7 @@
         <v>72</v>
       </c>
       <c r="AG254" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="AH254" t="s" s="2">
         <v>78</v>
@@ -29877,13 +29878,13 @@
     </row>
     <row r="255">
       <c r="A255" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B255" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C255" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="D255" s="2"/>
       <c r="E255" t="s" s="2">
@@ -29909,10 +29910,10 @@
         <v>174</v>
       </c>
       <c r="M255" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="N255" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="O255" s="2"/>
       <c r="P255" s="2"/>
@@ -29963,7 +29964,7 @@
         <v>72</v>
       </c>
       <c r="AG255" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="AH255" t="s" s="2">
         <v>78</v>
@@ -29980,13 +29981,13 @@
     </row>
     <row r="256">
       <c r="A256" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B256" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C256" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="D256" s="2"/>
       <c r="E256" t="s" s="2">
@@ -30012,10 +30013,10 @@
         <v>75</v>
       </c>
       <c r="M256" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="N256" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="O256" s="2"/>
       <c r="P256" s="2"/>
@@ -30083,13 +30084,13 @@
     </row>
     <row r="257">
       <c r="A257" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B257" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C257" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="D257" s="2"/>
       <c r="E257" t="s" s="2">
@@ -30112,13 +30113,13 @@
         <v>72</v>
       </c>
       <c r="L257" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="M257" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="N257" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="O257" s="2"/>
       <c r="P257" s="2"/>
@@ -30169,7 +30170,7 @@
         <v>72</v>
       </c>
       <c r="AG257" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="AH257" t="s" s="2">
         <v>78</v>
@@ -30186,13 +30187,13 @@
     </row>
     <row r="258">
       <c r="A258" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B258" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C258" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="D258" s="2"/>
       <c r="E258" t="s" s="2">
@@ -30215,13 +30216,13 @@
         <v>72</v>
       </c>
       <c r="L258" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="M258" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="N258" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="O258" s="2"/>
       <c r="P258" s="2"/>
@@ -30272,7 +30273,7 @@
         <v>72</v>
       </c>
       <c r="AG258" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="AH258" t="s" s="2">
         <v>78</v>
@@ -30289,13 +30290,13 @@
     </row>
     <row r="259">
       <c r="A259" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B259" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C259" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="D259" s="2"/>
       <c r="E259" t="s" s="2">
@@ -30321,10 +30322,10 @@
         <v>428</v>
       </c>
       <c r="M259" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="N259" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="O259" s="2"/>
       <c r="P259" s="2"/>
@@ -30375,7 +30376,7 @@
         <v>72</v>
       </c>
       <c r="AG259" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="AH259" t="s" s="2">
         <v>78</v>
@@ -30392,13 +30393,13 @@
     </row>
     <row r="260">
       <c r="A260" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B260" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C260" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="D260" s="2"/>
       <c r="E260" t="s" s="2">
@@ -30424,10 +30425,10 @@
         <v>286</v>
       </c>
       <c r="M260" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="N260" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="O260" s="2"/>
       <c r="P260" s="2"/>
@@ -30476,7 +30477,7 @@
         <v>72</v>
       </c>
       <c r="AG260" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="AH260" t="s" s="2">
         <v>78</v>
@@ -30493,13 +30494,13 @@
     </row>
     <row r="261">
       <c r="A261" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B261" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C261" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="D261" s="2"/>
       <c r="E261" t="s" s="2">
@@ -30525,10 +30526,10 @@
         <v>82</v>
       </c>
       <c r="M261" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="N261" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="O261" s="2"/>
       <c r="P261" s="2"/>
@@ -30577,7 +30578,7 @@
         <v>72</v>
       </c>
       <c r="AG261" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="AH261" t="s" s="2">
         <v>73</v>
@@ -30594,13 +30595,13 @@
     </row>
     <row r="262">
       <c r="A262" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B262" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C262" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="D262" s="2"/>
       <c r="E262" t="s" s="2">
@@ -30626,10 +30627,10 @@
         <v>135</v>
       </c>
       <c r="M262" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="N262" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="O262" s="2"/>
       <c r="P262" s="2"/>
@@ -30680,7 +30681,7 @@
         <v>72</v>
       </c>
       <c r="AG262" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="AH262" t="s" s="2">
         <v>78</v>
@@ -30697,13 +30698,13 @@
     </row>
     <row r="263">
       <c r="A263" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B263" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C263" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="D263" s="2"/>
       <c r="E263" t="s" s="2">
@@ -30729,10 +30730,10 @@
         <v>90</v>
       </c>
       <c r="M263" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="N263" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="O263" s="2"/>
       <c r="P263" s="2"/>
@@ -30783,7 +30784,7 @@
         <v>72</v>
       </c>
       <c r="AG263" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="AH263" t="s" s="2">
         <v>78</v>
@@ -30800,13 +30801,13 @@
     </row>
     <row r="264">
       <c r="A264" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B264" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C264" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="D264" s="2"/>
       <c r="E264" t="s" s="2">
@@ -30832,10 +30833,10 @@
         <v>93</v>
       </c>
       <c r="M264" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="N264" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="O264" s="2"/>
       <c r="P264" s="2"/>
@@ -30886,7 +30887,7 @@
         <v>72</v>
       </c>
       <c r="AG264" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="AH264" t="s" s="2">
         <v>73</v>
@@ -30903,13 +30904,13 @@
     </row>
     <row r="265">
       <c r="A265" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B265" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C265" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="D265" s="2"/>
       <c r="E265" t="s" s="2">
@@ -30935,10 +30936,10 @@
         <v>93</v>
       </c>
       <c r="M265" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="N265" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="O265" s="2"/>
       <c r="P265" s="2"/>
@@ -30989,7 +30990,7 @@
         <v>72</v>
       </c>
       <c r="AG265" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="AH265" t="s" s="2">
         <v>78</v>
@@ -31006,13 +31007,13 @@
     </row>
     <row r="266">
       <c r="A266" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B266" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C266" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D266" s="2"/>
       <c r="E266" t="s" s="2">
@@ -31109,13 +31110,13 @@
     </row>
     <row r="267">
       <c r="A267" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B267" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C267" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="D267" s="2"/>
       <c r="E267" t="s" s="2">
@@ -31214,13 +31215,13 @@
     </row>
     <row r="268">
       <c r="A268" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B268" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="C268" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="D268" s="2"/>
       <c r="E268" t="s" s="2">
@@ -31321,13 +31322,13 @@
     </row>
     <row r="269">
       <c r="A269" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B269" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="C269" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D269" s="2"/>
       <c r="E269" t="s" s="2">
@@ -31353,10 +31354,10 @@
         <v>82</v>
       </c>
       <c r="M269" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="N269" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="O269" s="2"/>
       <c r="P269" s="2"/>
@@ -31365,7 +31366,7 @@
       </c>
       <c r="R269" s="2"/>
       <c r="S269" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="T269" t="s" s="2">
         <v>72</v>
@@ -31387,7 +31388,7 @@
       </c>
       <c r="Z269" s="2"/>
       <c r="AA269" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="AB269" t="s" s="2">
         <v>72</v>
@@ -31405,7 +31406,7 @@
         <v>72</v>
       </c>
       <c r="AG269" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="AH269" t="s" s="2">
         <v>78</v>
@@ -31422,13 +31423,13 @@
     </row>
     <row r="270">
       <c r="A270" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B270" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C270" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="D270" s="2"/>
       <c r="E270" t="s" s="2">
@@ -31451,13 +31452,13 @@
         <v>72</v>
       </c>
       <c r="L270" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="M270" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="N270" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="O270" s="2"/>
       <c r="P270" s="2"/>
@@ -31508,7 +31509,7 @@
         <v>72</v>
       </c>
       <c r="AG270" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="AH270" t="s" s="2">
         <v>73</v>

--- a/r4-ELGA-IV-Herzinsuffizienz-main/all-profiles.xlsx
+++ b/r4-ELGA-IV-Herzinsuffizienz-main/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-29T09:10:17+00:00</t>
+    <t>2024-05-29T09:13:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
